--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Week 9</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>to set the title"Snake Game" for the game</t>
+  </si>
+  <si>
+    <t>prey logic</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>gameboard logic</t>
+  </si>
+  <si>
+    <t>snakegame logic</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>snakegame class</t>
+  </si>
+  <si>
+    <t>gameboard class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginform class </t>
   </si>
 </sst>
 </file>
@@ -242,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,6 +344,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -657,40 +686,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -816,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1025,7 +1054,9 @@
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1092,30 +1123,50 @@
       <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="34">
+        <v>0.2</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.2</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="12"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="12"/>
@@ -1131,21 +1182,53 @@
       <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>4.3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="9">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E29" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F29" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Week 9</t>
   </si>
@@ -166,9 +166,6 @@
     <t>gameboard logic</t>
   </si>
   <si>
-    <t>snakegame logic</t>
-  </si>
-  <si>
     <t>3.2.3</t>
   </si>
   <si>
@@ -182,6 +179,21 @@
   </si>
   <si>
     <t xml:space="preserve">loginform class </t>
+  </si>
+  <si>
+    <t>scoreframe logic</t>
+  </si>
+  <si>
+    <t>GUI for score frame</t>
+  </si>
+  <si>
+    <t>snake class</t>
+  </si>
+  <si>
+    <t>prey class</t>
+  </si>
+  <si>
+    <t>scoreframe class</t>
   </si>
 </sst>
 </file>
@@ -269,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +364,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,9 +1055,11 @@
         <v>24</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12">
@@ -1064,9 +1080,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="12"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="38">
+        <v>1</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1126,9 +1146,15 @@
       <c r="G19" s="34">
         <v>0.2</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="H19" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
@@ -1143,14 +1169,20 @@
       <c r="G20" s="34">
         <v>0.2</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="H20" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -1158,19 +1190,26 @@
       <c r="G21" s="35">
         <v>0.2</v>
       </c>
+      <c r="H21" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="12"/>
-      <c r="D23" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="9">
@@ -1189,10 +1228,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="14">
         <v>0.1</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1200,10 +1248,22 @@
         <v>4.2</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="14">
         <v>0.1</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1211,24 +1271,70 @@
         <v>4.3</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="14">
         <v>0.1</v>
       </c>
+      <c r="G28" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="9">
+      <c r="A29" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E34" s="8">
         <v>4</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F34" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -358,14 +358,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,40 +700,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,11 +1055,11 @@
         <v>24</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38">
-        <v>1</v>
-      </c>
-      <c r="J12" s="38"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36">
+        <v>1</v>
+      </c>
+      <c r="J12" s="36"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12">
@@ -1084,7 +1084,7 @@
         <v>54</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>1</v>
       </c>
       <c r="I14" s="6"/>
@@ -1146,13 +1146,13 @@
       <c r="G19" s="34">
         <v>0.2</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="36">
         <v>0.4</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <v>0.4</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="36">
         <v>1</v>
       </c>
       <c r="K19" s="6"/>
@@ -1169,13 +1169,13 @@
       <c r="G20" s="34">
         <v>0.2</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="36">
         <v>0.4</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="36">
         <v>0.4</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="36">
         <v>1</v>
       </c>
       <c r="K20" s="6"/>
@@ -1190,13 +1190,13 @@
       <c r="G21" s="35">
         <v>0.2</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>0.3</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="37">
         <v>0.5</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       <c r="D22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="37">
         <v>0.5</v>
       </c>
     </row>
@@ -1233,13 +1233,13 @@
       <c r="F26" s="14">
         <v>0.1</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="37">
         <v>0.8</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="37">
         <v>0.1</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1253,16 +1253,16 @@
       <c r="F27" s="14">
         <v>0.1</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="37">
         <v>0.3</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="37">
         <v>0.3</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="37">
         <v>0.3</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1277,13 +1277,13 @@
       <c r="F28" s="14">
         <v>0.1</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="37">
         <v>0.8</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="37">
         <v>0.1</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1316,15 +1316,18 @@
       <c r="C31" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="37">
         <v>0.4</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39">
+      <c r="I31" s="37"/>
+      <c r="J31" s="37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="K31" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -1336,6 +1339,9 @@
       </c>
       <c r="F34" s="14">
         <v>0</v>
+      </c>
+      <c r="K34" s="37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
